--- a/biology/Zoologie/Boophis_axelmeyeri/Boophis_axelmeyeri.xlsx
+++ b/biology/Zoologie/Boophis_axelmeyeri/Boophis_axelmeyeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boophis axelmeyeri est une espèce d'amphibiens de la famille des Mantellidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boophis axelmeyeri est une espèce d'amphibiens de la famille des Mantellidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Madagascar. Elle se rencontre entre 680 et 1 100 m d'altitude dans les massifs du Nord-Ouest de l'île[1],[2]. Elle est apparemment restreinte aux forêts tropicales humides primaire d'altitude moyenne[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Madagascar. Elle se rencontre entre 680 et 1 100 m d'altitude dans les massifs du Nord-Ouest de l'île,. Elle est apparemment restreinte aux forêts tropicales humides primaire d'altitude moyenne.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Boophis axelmeyeri mesure entre 36 et 43 mm pour les mâles. Son dos est brun foncé ; son ventre est blanc avec des taches brun foncé. La face externe des membres est brun gris et est rayée de sombre ; la face interne est bleu translucide avec des taches brunes.
 Caractéristique notable : d'importantes lèvres pendantes, ayant pour but d'effrayer les prédateurs, ainsi qu'à ingérer la nourriture avec plus d'aisance.
@@ -575,7 +591,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, axelmeyeri, lui a été donné en référence à Axel Meyer (FDC), au regard de sa contribution à la compréhension de l'origine et de la diversité de la faune malgache et ce plus particulièrement sur les poissons de la famille des Cichlidae et les amphibiens.
 </t>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Vences, Andreone &amp; Vieites, 2005 : New treefrog of the genus Boophis Tschudi 1838 from the northwestern rainforests of Madagascar. Tropical Zoology, vol. 18, p. 237-249 (texte intégral).</t>
         </is>
